--- a/xlsx/信息管理_intext.xlsx
+++ b/xlsx/信息管理_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
   <si>
     <t>信息管理</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A</t>
   </si>
   <si>
-    <t>資訊</t>
+    <t>资讯</t>
   </si>
   <si>
     <t>政策_政策_管理_信息管理</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>知識管理</t>
+    <t>知识管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E4%BF%A1%E6%81%AF%E7%AE%A1%E7%90%86</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>網際協議</t>
+    <t>网际协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%A6</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
+    <t>公共行政学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5%E7%AE%A1%E7%90%86</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>應變管理</t>
+    <t>应变管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Communications_management</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>績效管理</t>
+    <t>绩效管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E7%AE%A1%E7%90%86</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>營建管理</t>
+    <t>营建管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Line_management</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operations_management</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sales_management</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>壓力管理</t>
+    <t>压力管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_management</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E7%AE%A1%E7%90%86</t>
@@ -359,15 +359,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技管理</t>
+    <t>资讯科技管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>知识管理</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%9C%B0%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
@@ -407,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
   </si>
   <si>
-    <t>專家派遣</t>
+    <t>专家派遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>高階管理人員</t>
+    <t>高阶管理人员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adhocracy</t>
@@ -455,25 +452,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
+    <t>目标管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
   </si>
   <si>
-    <t>管理風格</t>
+    <t>管理风格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>宏觀管理</t>
+    <t>宏观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>微觀管理</t>
+    <t>微观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%AE%A1%E7%90%86</t>
@@ -503,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>決斷</t>
+    <t>决断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%BE%B7%E9%B2%81%E5%85%8B</t>
@@ -551,13 +548,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理學學士</t>
+    <t>工商管理学学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
@@ -617,13 +614,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>管理主義</t>
+    <t>管理主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>組織發展理論</t>
+    <t>组织发展理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
@@ -695,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2725,7 +2722,7 @@
         <v>115</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -2751,10 +2748,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2780,10 +2777,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2809,10 +2806,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2838,10 +2835,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2867,10 +2864,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2896,10 +2893,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2925,10 +2922,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2954,10 +2951,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2983,10 +2980,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3012,10 +3009,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3041,10 +3038,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3070,10 +3067,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3099,10 +3096,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3128,10 +3125,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3157,10 +3154,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3186,10 +3183,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3215,10 +3212,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3244,10 +3241,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3273,10 +3270,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3302,10 +3299,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3331,10 +3328,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3360,10 +3357,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3389,10 +3386,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3418,10 +3415,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3447,10 +3444,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3476,10 +3473,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3505,10 +3502,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3534,10 +3531,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3563,10 +3560,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3592,10 +3589,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3621,10 +3618,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3650,10 +3647,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3679,10 +3676,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3708,10 +3705,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3737,10 +3734,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3766,10 +3763,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3795,10 +3792,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3824,10 +3821,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3882,10 +3879,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3911,10 +3908,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3940,10 +3937,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3969,10 +3966,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3998,10 +3995,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4027,10 +4024,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4056,10 +4053,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4085,10 +4082,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4114,10 +4111,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4143,10 +4140,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4172,10 +4169,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4201,10 +4198,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4230,10 +4227,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4259,10 +4256,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4288,10 +4285,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4317,10 +4314,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4346,10 +4343,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -4375,10 +4372,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
